--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.031220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.031220.xlsx_with_dialog_acts.xlsx
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
